--- a/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-24.70893967909656</v>
+        <v>-24.36778609815155</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.20857754600236</v>
+        <v>-20.8108805119008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.70107652148105</v>
+        <v>-20.06782657671373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.15329788123089</v>
+        <v>-20.01902342078451</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6745530076341952</v>
+        <v>-0.6742168099017805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6126198990258471</v>
+        <v>-0.6030308409159205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6149519953769831</v>
+        <v>-0.6189397985806461</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6828908845282461</v>
+        <v>-0.6809536874950145</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-17.58225139957627</v>
+        <v>-17.7955398296098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-14.1248789519811</v>
+        <v>-13.61249948321171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-11.95491676890979</v>
+        <v>-11.79511831711377</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-11.84633782694299</v>
+        <v>-11.91951403291864</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.5449477837291596</v>
+        <v>-0.5495186211950174</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.4683397926474763</v>
+        <v>-0.4562140062278901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.4355242380672595</v>
+        <v>-0.4333492483695899</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.5074468005395658</v>
+        <v>-0.5087238288754183</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-5.487378509713142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.499158296981693</v>
+        <v>-5.49915829698168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2650562339412368</v>
@@ -749,7 +749,7 @@
         <v>-0.1415542708587309</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1919733484576536</v>
+        <v>-0.1919733484576532</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-15.49407461493094</v>
+        <v>-15.36041673736969</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.102847475210364</v>
+        <v>-7.752993724788548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.588864037990803</v>
+        <v>-8.654261094897658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.202635874315968</v>
+        <v>-8.376020054043828</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3305103795264342</v>
+        <v>-0.3299973242771815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1920340195228813</v>
+        <v>-0.1856609761651425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2124295494566389</v>
+        <v>-0.215364143038461</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.269257939061868</v>
+        <v>-0.2768428554943876</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-8.759601462386792</v>
+        <v>-8.480948310987378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.422328366127351</v>
+        <v>-1.164198046452147</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.477577777289901</v>
+        <v>-2.600428563632413</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.700334120707385</v>
+        <v>-2.81925640196521</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2006593261715991</v>
+        <v>-0.1927974345170418</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03520808161933207</v>
+        <v>-0.02861396691228175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.06617920321112246</v>
+        <v>-0.06935920150501318</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1000671777752221</v>
+        <v>-0.1036091862494727</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.973405405598264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5296432424181707</v>
+        <v>0.5296432424181735</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2000033575176101</v>
@@ -849,7 +849,7 @@
         <v>-0.1191979311152612</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03417490883311133</v>
+        <v>0.03417490883311152</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.24976134940915</v>
+        <v>-12.18076074211374</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.225328403584317</v>
+        <v>-9.105948661012262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.343125917454643</v>
+        <v>-8.112282669800132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.599340015507969</v>
+        <v>-3.360715640417387</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3381294080240868</v>
+        <v>-0.3381242016852058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2558368578773353</v>
+        <v>-0.2608421774435835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2979634222143367</v>
+        <v>-0.2958531892575227</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1968119735991358</v>
+        <v>-0.1907829113100176</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.9489341804006994</v>
+        <v>-1.19393817701299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.923790367972328</v>
+        <v>3.521581659248475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.196772231811502</v>
+        <v>2.237021482798148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.290875284208835</v>
+        <v>4.273048188991022</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.03170523413886092</v>
+        <v>-0.04355263346091842</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1287470404970356</v>
+        <v>0.1220399071268612</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1034498155377357</v>
+        <v>0.099907968875139</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3232185282383443</v>
+        <v>0.3186894517432061</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-8.50606337280812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.658933848486051</v>
+        <v>-6.658933848486049</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3837713167823272</v>
@@ -949,7 +949,7 @@
         <v>-0.2463688613207349</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2600120900827459</v>
+        <v>-0.2600120900827458</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-17.58010048208848</v>
+        <v>-17.38880271675206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.08093156535255</v>
+        <v>-12.2274182834821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.70758147531349</v>
+        <v>-10.67798756642044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.629511218033498</v>
+        <v>-8.790228369232159</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4286140395398305</v>
+        <v>-0.4276202864336769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3199252896747321</v>
+        <v>-0.3217030362405046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2996825848671136</v>
+        <v>-0.2984899654789899</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3210190918187936</v>
+        <v>-0.327203114512275</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-12.93842911611875</v>
+        <v>-12.85996769731355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-7.556407632942816</v>
+        <v>-7.614965893810242</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.162165511621803</v>
+        <v>-6.371494119573535</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-4.756380251137236</v>
+        <v>-4.784885368919308</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3372361833797471</v>
+        <v>-0.3327638103518208</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2132552634071185</v>
+        <v>-0.2153908331621133</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1856832103789154</v>
+        <v>-0.1920107914908323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1945643741165972</v>
+        <v>-0.1953637181966063</v>
       </c>
     </row>
     <row r="16">
